--- a/2月作品展示会仕様書.xlsx
+++ b/2月作品展示会仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\GitHub\Production_0216\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kouma\OneDrive\デスクトップ\Production_0216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A28D6A-7C52-4B3E-A582-57A1A76FDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2F3E1-B457-48AE-89DC-74F3E8E5E0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20CFE5C-2A82-490A-8503-18B968CE9116}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.4"/>

--- a/2月作品展示会仕様書.xlsx
+++ b/2月作品展示会仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kouma\OneDrive\デスクトップ\Production_0216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2F3E1-B457-48AE-89DC-74F3E8E5E0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA789F3-998A-4AF3-83DA-1435E730CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>二月の作品展示会に向けての制作</t>
     <rPh sb="0" eb="2">
@@ -1344,9 +1344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1384,7 +1384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1490,7 +1490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1632,7 +1632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20CFE5C-2A82-490A-8503-18B968CE9116}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.4"/>
@@ -2030,7 +2030,9 @@
       <c r="F27" s="10">
         <v>2</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="3:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C28" s="7"/>
@@ -2238,7 +2240,9 @@
       <c r="F41" s="10">
         <v>2</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="3:8" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C42" s="7"/>
@@ -2251,7 +2255,9 @@
       <c r="F42" s="10">
         <v>1</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="3:8" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C43" s="7" t="s">
@@ -2323,11 +2329,11 @@
       </c>
       <c r="F48" s="10">
         <f>F47-F49</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G48" s="21">
         <f>COUNTIF(G6:G44,"〇")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>78</v>
@@ -2341,11 +2347,11 @@
       </c>
       <c r="F49" s="10">
         <f>SUMIF(G6:G44,"",F6:F44)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G49" s="21">
         <f>COUNTIF(G6:G44,"")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>79</v>

--- a/2月作品展示会仕様書.xlsx
+++ b/2月作品展示会仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kouma\OneDrive\デスクトップ\Production_0216\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\Production_0216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA789F3-998A-4AF3-83DA-1435E730CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F2841-C70C-442E-BA87-3835A1B1DBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>二月の作品展示会に向けての制作</t>
     <rPh sb="0" eb="2">
@@ -1344,9 +1344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1384,7 +1384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1490,7 +1490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1632,7 +1632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20CFE5C-2A82-490A-8503-18B968CE9116}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.4"/>
@@ -2060,7 +2060,9 @@
       <c r="F29" s="10">
         <v>2</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="3:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C30" s="7"/>
@@ -2088,7 +2090,9 @@
       <c r="F31" s="10">
         <v>5</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="3:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C32" s="7"/>
@@ -2329,11 +2333,11 @@
       </c>
       <c r="F48" s="10">
         <f>F47-F49</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G48" s="21">
         <f>COUNTIF(G6:G44,"〇")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>78</v>
@@ -2347,11 +2351,11 @@
       </c>
       <c r="F49" s="10">
         <f>SUMIF(G6:G44,"",F6:F44)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G49" s="21">
         <f>COUNTIF(G6:G44,"")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>79</v>

--- a/2月作品展示会仕様書.xlsx
+++ b/2月作品展示会仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\Production_0216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F2841-C70C-442E-BA87-3835A1B1DBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153C714-7EC7-4437-8BB6-CE20E971EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{DBCD0482-7CCC-4823-8EFB-D8745D4F2736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>二月の作品展示会に向けての制作</t>
     <rPh sb="0" eb="2">
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20CFE5C-2A82-490A-8503-18B968CE9116}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" x14ac:dyDescent="0.4"/>
@@ -1807,7 +1807,9 @@
       <c r="F12" s="10">
         <v>3</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C13" s="7" t="s">
@@ -1942,7 +1944,9 @@
       <c r="F21" s="10">
         <v>3</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="3:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C22" s="7" t="s">
@@ -1987,7 +1991,9 @@
       <c r="F24" s="10">
         <v>4</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="3:7" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C25" s="7"/>
@@ -2169,7 +2175,9 @@
       <c r="F36" s="10">
         <v>1</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="3:8" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C37" s="7"/>
@@ -2291,7 +2299,9 @@
       <c r="F44" s="10">
         <v>5</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="3:8" ht="58.5" x14ac:dyDescent="0.4">
       <c r="C45" s="7"/>
@@ -2333,11 +2343,11 @@
       </c>
       <c r="F48" s="10">
         <f>F47-F49</f>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G48" s="21">
         <f>COUNTIF(G6:G44,"〇")</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>78</v>
@@ -2351,11 +2361,11 @@
       </c>
       <c r="F49" s="10">
         <f>SUMIF(G6:G44,"",F6:F44)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G49" s="21">
         <f>COUNTIF(G6:G44,"")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>79</v>
